--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_5955.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_5955.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5955</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fazalhaq Farooqi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +716,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +764,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +860,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1008,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -983,7 +1047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1005,7 +1069,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1042,7 +1106,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1079,7 +1143,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1116,7 +1180,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1153,7 +1217,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1190,7 +1254,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1264,7 +1328,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1301,7 +1365,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1338,7 +1402,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1375,7 +1439,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_5955.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_5955.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_5955.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_5955.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +558,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/01/2022</t>
@@ -708,7 +709,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -756,7 +756,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -804,7 +803,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -852,7 +850,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>09/06/2022</t>
@@ -900,7 +897,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -1000,7 +996,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -1471,4 +1466,391 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>